--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2758835.459313258</v>
+        <v>2866986.55222755</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8760647.549912484</v>
+        <v>8766690.560499741</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>375.1991482881737</v>
       </c>
       <c r="C2" t="n">
-        <v>56.44258631319788</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>141.7293241332461</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>78.26379205172464</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>136.1962873497751</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>298.2733221087661</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>86.39586315681325</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>175.2729733666821</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>13.62111542299834</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>65.47558212601578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>9.613636321141142</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>8.802424575814813</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>80.25286948725228</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>225.6414338000052</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187855</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1768,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.6949510903009</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.6816769105185</v>
+        <v>26.12116916215754</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.3722917337067</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>245.4109786013542</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>249.1295239142485</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>109.5557012899563</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.1343012721633</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>285.5970594671161</v>
       </c>
       <c r="V31" t="n">
-        <v>207.0967504439659</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>127.5379405516738</v>
       </c>
       <c r="D34" t="n">
-        <v>101.5730368512075</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>69.18922512558667</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>105.1162657551307</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>142.3575218158279</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>273.0374775300493</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>18.7084378797738</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>52.57516893523083</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901.3425442071336</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4328,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1627.359273474786</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071336</v>
+        <v>1627.359273474786</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>114.5432626034355</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844854</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159571</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751772</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.4077200359284</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C4" t="n">
-        <v>194.4077200359284</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D4" t="n">
-        <v>194.4077200359284</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4486,16 +4488,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1557.391784668715</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1334.41330386345</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1045.294966367288</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.255484944676</v>
+        <v>790.6104781614013</v>
       </c>
       <c r="W4" t="n">
-        <v>824.8383149077156</v>
+        <v>790.6104781614013</v>
       </c>
       <c r="X4" t="n">
-        <v>596.8487640096982</v>
+        <v>790.6104781614013</v>
       </c>
       <c r="Y4" t="n">
-        <v>376.0561848661681</v>
+        <v>569.8178990178711</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.332751740275</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4568,22 +4570,22 @@
         <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4595,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2424.76732097614</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2424.76732097614</v>
       </c>
       <c r="V5" t="n">
-        <v>2007.472083716086</v>
+        <v>2093.704433632569</v>
       </c>
       <c r="W5" t="n">
-        <v>2007.472083716086</v>
+        <v>2093.704433632569</v>
       </c>
       <c r="X5" t="n">
-        <v>2007.472083716086</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.332751740275</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605187</v>
       </c>
       <c r="L6" t="n">
-        <v>846.3061319081665</v>
+        <v>979.6730931919903</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>662.7751904765217</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C7" t="n">
-        <v>662.7751904765217</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1021.467062747854</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>1021.467062747854</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.4236553067615</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1171.901920325867</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>745.9401786091669</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>387.6744800024164</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3259.468869966729</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>3005.938393240566</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2674.875505896995</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2322.106850626881</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1948.641092365801</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1558.501760389989</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>469.8823635670444</v>
+        <v>622.6901078854036</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658018</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408143</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="X10" t="n">
-        <v>872.3234075408143</v>
+        <v>631.5814458407721</v>
       </c>
       <c r="Y10" t="n">
-        <v>651.5308283972842</v>
+        <v>622.6901078854036</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5063,13 +5065,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,16 +5126,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1918.296605585279</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>931.4710609784064</v>
       </c>
       <c r="C13" t="n">
-        <v>696.7084350851671</v>
+        <v>762.5348780504995</v>
       </c>
       <c r="D13" t="n">
-        <v>546.5917956728314</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E13" t="n">
-        <v>398.6787020904383</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F13" t="n">
-        <v>398.6787020904383</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,13 +5290,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,52 +5412,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687974</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5464,22 +5466,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.2858920990371</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5501,49 +5503,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.556199993915</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.566649095898</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.774069952368</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5731,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2726.914133601551</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>2854.44064873475</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>3482.038612289356</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>810.0653816078141</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>641.1291986799072</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5944,16 +5946,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232836</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1182.055381897053</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1182.055381897053</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>961.2628027535234</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3161.37108304703</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>2992.434900119124</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>2881.772575583814</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2303.393082295247</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>2083.791617318188</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.01954787727</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>3343.01954787727</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>3047.734188001555</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F31" t="n">
         <v>2728.681365661313</v>
@@ -6643,28 +6645,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>4471.231687421535</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>4182.156460765733</v>
+        <v>3932.849271079229</v>
       </c>
       <c r="V31" t="n">
-        <v>3972.967823953646</v>
+        <v>3678.164782873342</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>3678.164782873342</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>3450.175231975325</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>3229.382652831795</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3006.417838136243</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>2837.481655208336</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>2734.882628085904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279773</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136243</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6920,28 +6922,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6950,19 +6952,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,22 +7022,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3195.647281583949</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C37" t="n">
-        <v>3026.711098656042</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.594459243707</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661314</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2377.074977392799</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>2157.473512415741</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="V37" t="n">
-        <v>3826.077876455736</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W37" t="n">
-        <v>3826.077876455736</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X37" t="n">
-        <v>3598.088325557719</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y37" t="n">
-        <v>3377.295746414189</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7168,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7193,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>506.2737913123336</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L39" t="n">
-        <v>506.2737913123336</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>840.8417932021782</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3336.216066251168</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3167.279883323261</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4221.331149328842</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3966.646661122955</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3966.646661122955</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3738.657110224938</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3517.864531081408</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,25 +7426,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590559</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2567.28068676178</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3062.606292977538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3062.606292977538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>3690.204256532145</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1701.665648661974</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1701.665648661974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1412.248478625013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>963.466348583466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,31 +7666,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558406</v>
+        <v>3228.447361044447</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630499</v>
+        <v>3059.51117811654</v>
       </c>
       <c r="D46" t="n">
-        <v>2438.670847218163</v>
+        <v>2909.394538704204</v>
       </c>
       <c r="E46" t="n">
-        <v>2419.773435218392</v>
+        <v>2761.481445121811</v>
       </c>
       <c r="F46" t="n">
-        <v>2419.773435218392</v>
+        <v>2614.591497623901</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218392</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305901</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328842</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.25592267304</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467153</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430193</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9556134883071792</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>294.8344935184732</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>255.8421700460946</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>114.3555089013354</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8711,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.126250982330011e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>85.27126880501656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>60.88156453658584</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.8897022617939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.15030327141884</v>
+        <v>153.7108110197798</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>41.11201973523683</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>37.39347442234254</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>39.05977172825608</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>38.89198472948132</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.5874149221280618</v>
       </c>
       <c r="V31" t="n">
-        <v>45.0408928798621</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>39.70888054695405</v>
       </c>
       <c r="D34" t="n">
-        <v>47.04243616700485</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>111.8370608760579</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>147.0213775686973</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>6.257951202384419</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>13.14699685919481</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>127.7255247667954</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>112.948969357038</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>766173.0207395977</v>
+        <v>772709.1409907757</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="N2" t="n">
-        <v>665895.9447442555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442552</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307102</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719745</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719647</v>
+        <v>7507.368461719715</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719683</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719635</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719644</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719643</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719637</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719638</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26527,43 @@
         <v>451307.8241514447</v>
       </c>
       <c r="D6" t="n">
-        <v>290103.9759032321</v>
+        <v>451307.8241514448</v>
       </c>
       <c r="E6" t="n">
-        <v>231853.584651273</v>
+        <v>49780.60483408239</v>
       </c>
       <c r="F6" t="n">
+        <v>557266.046458628</v>
+      </c>
+      <c r="G6" t="n">
+        <v>557266.046458628</v>
+      </c>
+      <c r="H6" t="n">
+        <v>557266.0464586283</v>
+      </c>
+      <c r="I6" t="n">
         <v>557266.0464586285</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>389660.8686486456</v>
+      </c>
+      <c r="K6" t="n">
         <v>557266.0464586281</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>557266.0464586281</v>
       </c>
-      <c r="I6" t="n">
-        <v>557266.0464586287</v>
-      </c>
-      <c r="J6" t="n">
-        <v>389660.8686486459</v>
-      </c>
-      <c r="K6" t="n">
-        <v>557266.0464586284</v>
-      </c>
-      <c r="L6" t="n">
-        <v>508972.0764504381</v>
-      </c>
       <c r="M6" t="n">
-        <v>472211.0185231162</v>
+        <v>424658.7527297009</v>
       </c>
       <c r="N6" t="n">
-        <v>557266.0464586287</v>
+        <v>557266.0464586279</v>
       </c>
       <c r="O6" t="n">
-        <v>557266.0464586284</v>
+        <v>557266.046458628</v>
       </c>
       <c r="P6" t="n">
-        <v>557266.0464586285</v>
+        <v>557266.0464586281</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,22 +26795,22 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>7.534693375306858</v>
       </c>
       <c r="C2" t="n">
-        <v>308.8303054578097</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>4.704638513323118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>116.3986683100128</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>70.46189763045862</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>29.47893636136877</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>80.85095794181458</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.31167998541272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>368.3092546492634</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>138.4423880136044</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>157.6331847774867</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>209.78222877628</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="18">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,46 +31281,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31449,16 +31451,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,10 +31846,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,7 +31858,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>539.5330155967683</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>489.289183278307</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,25 +32311,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32336,7 +32338,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32549,19 +32551,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M21" t="n">
-        <v>270.9486956727241</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32573,7 +32575,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>469.5567819573404</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>151.9914336104071</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>489.289183278307</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M33" t="n">
-        <v>355.4083096598242</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>401.521336481369</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>639.8517673857165</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>688.420579210372</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>396.9700886943664</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.9358343792246</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34784,22 +34786,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>544.5140226420056</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L6" t="n">
-        <v>553.5225306839448</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>230.83623123219</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>508.7132618620056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,7 +35506,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>405.558608182438</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>357.9474711949737</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35957,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>23.94570355317105</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M21" t="n">
-        <v>128.8146617507058</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>327.4227480353221</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>20.64972152707382</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9474711949737</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M33" t="n">
-        <v>213.2742757378059</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>508.5100553023832</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>545.8243347659276</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>254.8360547723481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2866986.55222755</v>
+        <v>2862849.394977399</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375.1991482881737</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>35.54361781414397</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15.5366602628393</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>78.26379205172464</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -879,10 +879,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>136.1962873497751</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>225.7344481542842</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>86.39586315681325</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>218.2275692240559</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>13.62111542299834</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1153,7 +1153,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>216.209257536856</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>124.0961330064684</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.802424575814813</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695258</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428082</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>225.6414338000052</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187855</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695327</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>20.88994825141494</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444117</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.12116916215754</v>
+        <v>13.79222725775085</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710057</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>133.3722917337067</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>240.4867949051523</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.1343012721633</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>285.5970594671161</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>201.1603734461216</v>
       </c>
     </row>
     <row r="32">
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>127.5379405516738</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>69.18922512558667</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>52.57516893523083</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705873</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>474.7217947496364</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>105.7592778092247</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>105.7592778092247</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>105.7592778092247</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>98.81377706002125</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>87.14943082471419</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>87.14943082471419</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>2000.825031735866</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1627.359273474786</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1627.359273474786</v>
+        <v>861.3216348137582</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388.1694341876314</v>
+        <v>172.7955294637</v>
       </c>
       <c r="C4" t="n">
-        <v>219.2332512597245</v>
+        <v>172.7955294637</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1557.391784668715</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1334.41330386345</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1045.294966367288</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>790.6104781614013</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>790.6104781614013</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X4" t="n">
-        <v>790.6104781614013</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y4" t="n">
-        <v>569.8178990178711</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1330.099343395678</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.099343395678</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4597,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2424.76732097614</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2424.76732097614</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2093.704433632569</v>
+        <v>2334.324734304918</v>
       </c>
       <c r="W5" t="n">
-        <v>2093.704433632569</v>
+        <v>1981.556079034804</v>
       </c>
       <c r="X5" t="n">
-        <v>1720.23867537149</v>
+        <v>1608.090320773724</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.099343395678</v>
+        <v>1217.950988797912</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605187</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919903</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
         <v>1342.93511215121</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312196</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1416.01423196939</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>1126.597061932429</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>898.6075110344121</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>677.814931890882</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1114.902695549579</v>
+        <v>1957.346298904865</v>
       </c>
       <c r="C8" t="n">
-        <v>745.9401786091669</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>387.6744800024164</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>373.9157775549433</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>2343.946138968987</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>801.944955774447</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>622.6901078854036</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>453.7539249574967</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>453.7539249574967</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1511.096490775034</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387894</v>
+        <v>1256.412002569147</v>
       </c>
       <c r="W10" t="n">
-        <v>859.5709967387894</v>
+        <v>966.9948325321864</v>
       </c>
       <c r="X10" t="n">
-        <v>631.5814458407721</v>
+        <v>739.005281634169</v>
       </c>
       <c r="Y10" t="n">
-        <v>622.6901078854036</v>
+        <v>518.2127024906389</v>
       </c>
     </row>
     <row r="11">
@@ -5032,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,40 +5105,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784064</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504995</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381638</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557706</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578603</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297703</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362665</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614391</v>
+        <v>945.4026036630031</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424045</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300688</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>228.5361496476756</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>228.5361496476756</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>228.5361496476756</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1954.146591037918</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1699.462102832031</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1182.055381897053</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>961.2628027535234</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2303.393082295247</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>2083.791617318188</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1794.716390662386</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,16 +6451,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3047.734188001555</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C31" t="n">
-        <v>2878.798005073648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661313</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.849271079229</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>3678.164782873342</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>3678.164782873342</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>3450.175231975325</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>3229.382652831795</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
         <v>484.8112968429803</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2377.074977392799</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2157.473512415741</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1868.398285759938</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,22 +7165,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7195,16 +7195,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021782</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,13 +7405,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7423,28 +7423,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3228.447361044447</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C46" t="n">
-        <v>3059.51117811654</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D46" t="n">
-        <v>2909.394538704204</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E46" t="n">
-        <v>2761.481445121811</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F46" t="n">
-        <v>2614.591497623901</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>4221.331149328841</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V46" t="n">
-        <v>3966.646661122954</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.229491085994</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>3449.239940187977</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y46" t="n">
-        <v>3228.447361044447</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184732</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.126250982330011e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194306</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>60.88156453658584</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>124.5310997715163</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7108110197798</v>
+        <v>166.0397529241864</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6.922421112517128</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>45.69767948409188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D25" t="n">
-        <v>145.6085800303782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>38.89198472948132</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.5874149221280618</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>17.42427990597315</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>39.70888054695405</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,7 +25125,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>111.8370608760579</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>112.948969357038</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.988328391</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380342</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442546</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245453</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719745</v>
+        <v>7507.368461719792</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719715</v>
+        <v>7507.368461719761</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719683</v>
+        <v>7507.368461719761</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719749</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26456,7 +26456,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719627</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-663443.959424475</v>
+        <v>-663443.9594244745</v>
       </c>
       <c r="C6" t="n">
-        <v>451307.8241514447</v>
+        <v>451307.8241514445</v>
       </c>
       <c r="D6" t="n">
-        <v>451307.8241514448</v>
+        <v>451307.8241514444</v>
       </c>
       <c r="E6" t="n">
-        <v>49780.60483408239</v>
+        <v>49433.22557972582</v>
       </c>
       <c r="F6" t="n">
-        <v>557266.046458628</v>
+        <v>556918.6672042712</v>
       </c>
       <c r="G6" t="n">
-        <v>557266.046458628</v>
+        <v>556918.6672042712</v>
       </c>
       <c r="H6" t="n">
-        <v>557266.0464586283</v>
+        <v>556918.6672042712</v>
       </c>
       <c r="I6" t="n">
-        <v>557266.0464586285</v>
+        <v>556918.6672042714</v>
       </c>
       <c r="J6" t="n">
-        <v>389660.8686486456</v>
+        <v>389313.4893942883</v>
       </c>
       <c r="K6" t="n">
-        <v>557266.0464586281</v>
+        <v>556918.667204271</v>
       </c>
       <c r="L6" t="n">
-        <v>557266.0464586281</v>
+        <v>556918.667204271</v>
       </c>
       <c r="M6" t="n">
-        <v>424658.7527297009</v>
+        <v>424311.3734753443</v>
       </c>
       <c r="N6" t="n">
-        <v>557266.0464586279</v>
+        <v>556918.6672042711</v>
       </c>
       <c r="O6" t="n">
-        <v>557266.046458628</v>
+        <v>556918.6672042713</v>
       </c>
       <c r="P6" t="n">
-        <v>557266.0464586281</v>
+        <v>556918.6672042713</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,26 +26959,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26995,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.123455999609</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.534693375306858</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>30.16629485832652</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>133.0788127553731</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>116.3986683100128</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>70.46189763045862</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>102.0178103158507</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>80.85095794181458</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>33.91007409977212</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>368.3092546492634</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>170.0286811191976</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>162.1310211147322</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>209.78222877628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>2.756905814749189e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>2.074784788419493e-12</v>
       </c>
       <c r="T14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-5.487218467042014e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31299,7 +31299,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31369,22 +31369,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31451,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31469,13 +31469,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>441.0292693655512</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>610.0546826043645</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>639.8517673857165</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>567.4250434254225</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620059</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>544.5140226420056</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34947,7 +34947,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560633</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35026,10 +35026,10 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35038,7 +35038,7 @@
         <v>230.83623123219</v>
       </c>
       <c r="R6" t="n">
-        <v>24.5838886097709</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35102,7 +35102,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35111,7 +35111,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620056</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>471.5003028244903</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>508.5100553023832</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>436.0833313420891</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2862849.394977399</v>
+        <v>2864609.925280186</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>35.54361781414397</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>35.54361781414391</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.5366602628393</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.6473723119425</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>225.7344481542842</v>
+        <v>243.0006064908049</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>218.2275692240559</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1153,7 +1153,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>216.209257536856</v>
+        <v>216.2092575368569</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>124.0961330064684</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>230.8127283073657</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695258</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428082</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695327</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>20.88994825141494</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756248</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444117</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.79222725775085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710057</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>240.4867949051523</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>108.9501037550978</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>201.1603734461216</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>139.511541534052</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>26.13627195705873</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>127.0078463455647</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474.7217947496364</v>
+        <v>438.8191504929254</v>
       </c>
       <c r="C2" t="n">
-        <v>105.7592778092247</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="D2" t="n">
-        <v>105.7592778092247</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7592778092247</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>98.81377706002125</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>87.14943082471419</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>87.14943082471419</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2526.436684143444</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1941.792736064053</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1589.024080793939</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>1215.558322532859</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137582</v>
+        <v>825.4189905570472</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744472</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M3" t="n">
         <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O3" t="n">
         <v>1884.562538506774</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.7955294637</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="C4" t="n">
-        <v>172.7955294637</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>803.2261243354872</v>
+        <v>1400.438673294758</v>
       </c>
       <c r="X4" t="n">
-        <v>575.2365734374698</v>
+        <v>1172.44912239674</v>
       </c>
       <c r="Y4" t="n">
-        <v>354.4439942939397</v>
+        <v>951.6565432532101</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1217.950988797912</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2334.324734304918</v>
+        <v>2316.884170328636</v>
       </c>
       <c r="W5" t="n">
-        <v>1981.556079034804</v>
+        <v>1964.115515058522</v>
       </c>
       <c r="X5" t="n">
-        <v>1608.090320773724</v>
+        <v>1590.649756797442</v>
       </c>
       <c r="Y5" t="n">
-        <v>1217.950988797912</v>
+        <v>1200.51042482163</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.1664670606423</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1416.01423196939</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1126.597061932429</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>898.6075110344121</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>677.814931890882</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4801,52 +4801,52 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="Y8" t="n">
         <v>2343.946138968987</v>
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1511.096490775034</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1256.412002569147</v>
+        <v>1403.301950067057</v>
       </c>
       <c r="W10" t="n">
-        <v>966.9948325321864</v>
+        <v>1113.884780030097</v>
       </c>
       <c r="X10" t="n">
-        <v>739.005281634169</v>
+        <v>885.8952291320793</v>
       </c>
       <c r="Y10" t="n">
-        <v>518.2127024906389</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,37 +5044,37 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,34 +5105,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273893</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516139</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270434</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400703</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121634</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121634</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>197.0043242297703</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138402</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.50206557031</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362665</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.3616186032</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947398</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741511</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806533</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630031</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>779.6143379232836</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1954.146591037918</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1699.462102832031</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1410.044932795071</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X22" t="n">
-        <v>1182.055381897053</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y22" t="n">
-        <v>961.2628027535234</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6056,22 +6056,22 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
         <v>402.7245934908938</v>
@@ -6141,58 +6141,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6217,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098242</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819173</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695815</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3896878871884</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>369.499740389278</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>202.303641104158</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000582</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>2251.626625948255</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924459</v>
+        <v>1962.551399292452</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718572</v>
+        <v>1707.866911086565</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783594</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640064</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>211.0329012241558</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.3555089013354</v>
+        <v>114.3555089013345</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-2.95569748243736e-13</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194306</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>124.5310997715163</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.0033420516635</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>166.0397529241864</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>45.69767948409188</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>177.5728945814932</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.42427990597315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>120.3791545843328</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>26.0125967582168</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>114.1584408891651</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>90.39760398172358</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753319.988328391</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245453</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719792</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719761</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719761</v>
+        <v>7507.368461719628</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719749</v>
+        <v>7507.368461719635</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26456,7 +26456,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-663443.9594244745</v>
       </c>
       <c r="C6" t="n">
+        <v>451307.8241514448</v>
+      </c>
+      <c r="D6" t="n">
         <v>451307.8241514445</v>
       </c>
-      <c r="D6" t="n">
-        <v>451307.8241514444</v>
-      </c>
       <c r="E6" t="n">
-        <v>49433.22557972582</v>
+        <v>49745.8669086466</v>
       </c>
       <c r="F6" t="n">
-        <v>556918.6672042712</v>
+        <v>557231.3085331924</v>
       </c>
       <c r="G6" t="n">
-        <v>556918.6672042712</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="H6" t="n">
-        <v>556918.6672042712</v>
+        <v>557231.3085331928</v>
       </c>
       <c r="I6" t="n">
-        <v>556918.6672042714</v>
+        <v>557231.3085331928</v>
       </c>
       <c r="J6" t="n">
-        <v>389313.4893942883</v>
+        <v>389626.13072321</v>
       </c>
       <c r="K6" t="n">
-        <v>556918.667204271</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="L6" t="n">
-        <v>556918.667204271</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="M6" t="n">
-        <v>424311.3734753443</v>
+        <v>424624.0148042659</v>
       </c>
       <c r="N6" t="n">
-        <v>556918.6672042711</v>
+        <v>557231.3085331925</v>
       </c>
       <c r="O6" t="n">
-        <v>556918.6672042713</v>
+        <v>557231.3085331927</v>
       </c>
       <c r="P6" t="n">
-        <v>556918.6672042713</v>
+        <v>557231.3085331927</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26792,19 +26792,19 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241342</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>30.16629485832652</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>171.1145671660898</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27542,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>133.0788127553731</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>52.87562602464851</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>102.0178103158507</v>
+        <v>84.75165197932998</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>33.91007409977212</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>170.0286811191976</v>
+        <v>170.0286811191967</v>
       </c>
     </row>
     <row r="9">
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>162.1310211147322</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>21.32491501646226</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.756905814749189e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.074784788419493e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.487218467042014e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>508.7132618620059</v>
+        <v>508.7132618620056</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>230.83623123219</v>
+        <v>230.836231232189</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
